--- a/notes_reviews/decarbonization_strategy/simple_model.xlsx
+++ b/notes_reviews/decarbonization_strategy/simple_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="supply_demand_2020_6MWh" sheetId="5" r:id="rId1"/>
@@ -456,8 +456,620 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <f>365*24/1000</f>
+        <v>8.76</v>
+      </c>
+      <c r="K3" s="1">
+        <f>AVERAGE(K7:K8,K10:K13)</f>
+        <v>0.3683980769230768</v>
+      </c>
+      <c r="L3" s="5">
+        <f>AVERAGE(L7:L8,L10:L13)*0.365</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.2</v>
+      </c>
+      <c r="H5">
+        <v>0.8</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <f>N3*AVERAGE(M7:M8,M10:M13)*365/1000</f>
+        <v>1.9060000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1.3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0.8</v>
+      </c>
+      <c r="H6">
+        <v>1.2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <f>C2*1000/365*C5/(C5+C6)</f>
+        <v>7.1471113758189411</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f>G2*G3*G5/(G5+G6)/365</f>
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="H7" s="2">
+        <f>H2*H3*H5/(H5+H6)/365</f>
+        <v>1.095890410958904</v>
+      </c>
+      <c r="I7" s="2">
+        <f>I2*I3*I5/(I5+I6)/365</f>
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="2">
+        <f>SUM(G7:I7)</f>
+        <v>2.517808219178082</v>
+      </c>
+      <c r="K7" s="4">
+        <f>MIN(J7/C7,1)</f>
+        <v>0.35228333333333323</v>
+      </c>
+      <c r="L7" s="2">
+        <f>MAX(0,J7-C7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <f>C7*(1-K7)</f>
+        <v>4.6293031566408587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <f>C2*1000/365*C6/(C5+C6)</f>
+        <v>9.2912447885646241</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <f>G2*G3*G6/(G5+G6)/365</f>
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="H8" s="2">
+        <f>H2*H3*H6/(H5+H6)/365</f>
+        <v>1.6438356164383561</v>
+      </c>
+      <c r="I8" s="2">
+        <f>I2*I3*I6/(I5+I6)/365</f>
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="2">
+        <f>SUM(G8:I8)</f>
+        <v>2.7917808219178082</v>
+      </c>
+      <c r="K8" s="4">
+        <f>MIN(J8/C8,1)</f>
+        <v>0.30047435897435892</v>
+      </c>
+      <c r="L8" s="2">
+        <f>MAX(0,J8-C8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <f>C8*(1-K8)</f>
+        <v>6.4994639666468155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <f>C7*C9</f>
+        <v>7.1471113758189411</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <f>G7*G9</f>
+        <v>1.6438356164383561</v>
+      </c>
+      <c r="H10" s="2">
+        <f>H7*H9</f>
+        <v>2.1917808219178081</v>
+      </c>
+      <c r="I10" s="2">
+        <f>I7*I9</f>
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="2">
+        <f>SUM(G10:I10)</f>
+        <v>4.4356164383561643</v>
+      </c>
+      <c r="K10" s="4">
+        <f>MIN(J10/C10,1)</f>
+        <v>0.62061666666666659</v>
+      </c>
+      <c r="L10" s="2">
+        <f>MAX(0,J10-C10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <f>C10*(1-K10)</f>
+        <v>2.7114949374627764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <f>C8*C9</f>
+        <v>9.2912447885646241</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <f>G8*G9</f>
+        <v>1.095890410958904</v>
+      </c>
+      <c r="H11" s="2">
+        <f>H8*H9</f>
+        <v>3.2876712328767121</v>
+      </c>
+      <c r="I11" s="2">
+        <f>I8*I9</f>
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="2">
+        <f>SUM(G11:I11)</f>
+        <v>4.9835616438356158</v>
+      </c>
+      <c r="K11" s="4">
+        <f>MIN(J11/C11,1)</f>
+        <v>0.53637179487179465</v>
+      </c>
+      <c r="L11" s="2">
+        <f>MAX(0,J11-C11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <f>C11*(1-K11)</f>
+        <v>4.3076831447290083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C7/C9</f>
+        <v>7.1471113758189411</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <f>G7/G9</f>
+        <v>0.41095890410958902</v>
+      </c>
+      <c r="H12" s="2">
+        <f>H7/H9</f>
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="I12" s="2">
+        <f>I7/I9</f>
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="2">
+        <f>SUM(G12:I12)</f>
+        <v>1.558904109589041</v>
+      </c>
+      <c r="K12" s="4">
+        <f>MIN(J12/C12,1)</f>
+        <v>0.21811666666666663</v>
+      </c>
+      <c r="L12" s="2">
+        <f>MAX(0,J12-C12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <f>C12*(1-K12)</f>
+        <v>5.5882072662299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <f>C8/C9</f>
+        <v>9.2912447885646241</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <f>G8/G9</f>
+        <v>0.27397260273972601</v>
+      </c>
+      <c r="H13" s="2">
+        <f>H8/H9</f>
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="I13" s="2">
+        <f>I8/I9</f>
+        <v>0.6</v>
+      </c>
+      <c r="J13" s="2">
+        <f>SUM(G13:I13)</f>
+        <v>1.6958904109589041</v>
+      </c>
+      <c r="K13" s="4">
+        <f>MIN(J13/C13,1)</f>
+        <v>0.18252564102564098</v>
+      </c>
+      <c r="L13" s="2">
+        <f>MAX(0,J13-C13)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <f>C13*(1-K13)</f>
+        <v>7.5953543776057204</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="4"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="4"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="4"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="4"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="4"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="4"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I33" s="3"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="4"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="4"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="4"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="4"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="4"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="4"/>
+      <c r="M43" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N43"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +1112,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -509,10 +1121,10 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="H2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -546,11 +1158,11 @@
       </c>
       <c r="K3" s="1">
         <f>AVERAGE(K7:K8,K10:K13)</f>
-        <v>0.3683980769230768</v>
+        <v>0.72194487179487166</v>
       </c>
       <c r="L3" s="5">
         <f>AVERAGE(L7:L8,L10:L13)*0.365</f>
-        <v>0</v>
+        <v>0.40633333333333299</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -588,7 +1200,7 @@
       </c>
       <c r="N5" s="2">
         <f>N3*AVERAGE(M7:M8,M10:M13)*365/1000</f>
-        <v>1.9060000000000006</v>
+        <v>0.85400000000000043</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -632,11 +1244,11 @@
       </c>
       <c r="G7" s="2">
         <f>G2*G3*G5/(G5+G6)/365</f>
-        <v>0.82191780821917804</v>
+        <v>3.2876712328767121</v>
       </c>
       <c r="H7" s="2">
         <f>H2*H3*H5/(H5+H6)/365</f>
-        <v>1.095890410958904</v>
+        <v>2.1917808219178081</v>
       </c>
       <c r="I7" s="2">
         <f>I2*I3*I5/(I5+I6)/365</f>
@@ -644,11 +1256,11 @@
       </c>
       <c r="J7" s="2">
         <f>SUM(G7:I7)</f>
-        <v>2.517808219178082</v>
+        <v>6.0794520547945199</v>
       </c>
       <c r="K7" s="4">
         <f>MIN(J7/C7,1)</f>
-        <v>0.35228333333333323</v>
+        <v>0.85061666666666647</v>
       </c>
       <c r="L7" s="2">
         <f>MAX(0,J7-C7)</f>
@@ -656,7 +1268,7 @@
       </c>
       <c r="M7" s="3">
         <f>C7*(1-K7)</f>
-        <v>4.6293031566408587</v>
+        <v>1.067659321024421</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -679,11 +1291,11 @@
       </c>
       <c r="G8" s="2">
         <f>G2*G3*G6/(G5+G6)/365</f>
-        <v>0.54794520547945202</v>
+        <v>2.1917808219178081</v>
       </c>
       <c r="H8" s="2">
         <f>H2*H3*H6/(H5+H6)/365</f>
-        <v>1.6438356164383561</v>
+        <v>3.2876712328767121</v>
       </c>
       <c r="I8" s="2">
         <f>I2*I3*I6/(I5+I6)/365</f>
@@ -691,11 +1303,11 @@
       </c>
       <c r="J8" s="2">
         <f>SUM(G8:I8)</f>
-        <v>2.7917808219178082</v>
+        <v>6.0794520547945199</v>
       </c>
       <c r="K8" s="4">
         <f>MIN(J8/C8,1)</f>
-        <v>0.30047435897435892</v>
+        <v>0.65432051282051262</v>
       </c>
       <c r="L8" s="2">
         <f>MAX(0,J8-C8)</f>
@@ -703,7 +1315,7 @@
       </c>
       <c r="M8" s="3">
         <f>C8*(1-K8)</f>
-        <v>6.4994639666468155</v>
+        <v>3.2117927337701038</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -747,11 +1359,11 @@
       </c>
       <c r="G10" s="2">
         <f>G7*G9</f>
-        <v>1.6438356164383561</v>
+        <v>6.5753424657534243</v>
       </c>
       <c r="H10" s="2">
         <f>H7*H9</f>
-        <v>2.1917808219178081</v>
+        <v>4.3835616438356162</v>
       </c>
       <c r="I10" s="2">
         <f>I7*I9</f>
@@ -759,19 +1371,19 @@
       </c>
       <c r="J10" s="2">
         <f>SUM(G10:I10)</f>
-        <v>4.4356164383561643</v>
+        <v>11.55890410958904</v>
       </c>
       <c r="K10" s="4">
         <f>MIN(J10/C10,1)</f>
-        <v>0.62061666666666659</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
         <f>MAX(0,J10-C10)</f>
-        <v>0</v>
+        <v>4.4117927337700991</v>
       </c>
       <c r="M10" s="3">
         <f>C10*(1-K10)</f>
-        <v>2.7114949374627764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -794,11 +1406,11 @@
       </c>
       <c r="G11" s="2">
         <f>G8*G9</f>
-        <v>1.095890410958904</v>
+        <v>4.3835616438356162</v>
       </c>
       <c r="H11" s="2">
         <f>H8*H9</f>
-        <v>3.2876712328767121</v>
+        <v>6.5753424657534243</v>
       </c>
       <c r="I11" s="2">
         <f>I8*I9</f>
@@ -806,19 +1418,19 @@
       </c>
       <c r="J11" s="2">
         <f>SUM(G11:I11)</f>
-        <v>4.9835616438356158</v>
+        <v>11.55890410958904</v>
       </c>
       <c r="K11" s="4">
         <f>MIN(J11/C11,1)</f>
-        <v>0.53637179487179465</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
         <f>MAX(0,J11-C11)</f>
-        <v>0</v>
+        <v>2.267659321024416</v>
       </c>
       <c r="M11" s="3">
         <f>C11*(1-K11)</f>
-        <v>4.3076831447290083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -841,11 +1453,11 @@
       </c>
       <c r="G12" s="2">
         <f>G7/G9</f>
-        <v>0.41095890410958902</v>
+        <v>1.6438356164383561</v>
       </c>
       <c r="H12" s="2">
         <f>H7/H9</f>
-        <v>0.54794520547945202</v>
+        <v>1.095890410958904</v>
       </c>
       <c r="I12" s="2">
         <f>I7/I9</f>
@@ -853,11 +1465,11 @@
       </c>
       <c r="J12" s="2">
         <f>SUM(G12:I12)</f>
-        <v>1.558904109589041</v>
+        <v>3.3397260273972602</v>
       </c>
       <c r="K12" s="4">
         <f>MIN(J12/C12,1)</f>
-        <v>0.21811666666666663</v>
+        <v>0.46728333333333322</v>
       </c>
       <c r="L12" s="2">
         <f>MAX(0,J12-C12)</f>
@@ -865,7 +1477,7 @@
       </c>
       <c r="M12" s="3">
         <f>C12*(1-K12)</f>
-        <v>5.5882072662299</v>
+        <v>3.8073853484216809</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -888,11 +1500,11 @@
       </c>
       <c r="G13" s="2">
         <f>G8/G9</f>
-        <v>0.27397260273972601</v>
+        <v>1.095890410958904</v>
       </c>
       <c r="H13" s="2">
         <f>H8/H9</f>
-        <v>0.82191780821917804</v>
+        <v>1.6438356164383561</v>
       </c>
       <c r="I13" s="2">
         <f>I8/I9</f>
@@ -900,11 +1512,11 @@
       </c>
       <c r="J13" s="2">
         <f>SUM(G13:I13)</f>
-        <v>1.6958904109589041</v>
+        <v>3.3397260273972602</v>
       </c>
       <c r="K13" s="4">
         <f>MIN(J13/C13,1)</f>
-        <v>0.18252564102564098</v>
+        <v>0.35944871794871786</v>
       </c>
       <c r="L13" s="2">
         <f>MAX(0,J13-C13)</f>
@@ -912,7 +1524,7 @@
       </c>
       <c r="M13" s="3">
         <f>C13*(1-K13)</f>
-        <v>7.5953543776057204</v>
+        <v>5.9515187611673648</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
@@ -1066,12 +1678,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,10 +1735,10 @@
         <v>13</v>
       </c>
       <c r="G2">
+        <v>4500</v>
+      </c>
+      <c r="H2">
         <v>2000</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -1160,11 +1772,11 @@
       </c>
       <c r="K3" s="1">
         <f>AVERAGE(K7:K8,K10:K13)</f>
-        <v>0.72194487179487166</v>
+        <v>0.9319873931623931</v>
       </c>
       <c r="L3" s="5">
         <f>AVERAGE(L7:L8,L10:L13)*0.365</f>
-        <v>0.40633333333333299</v>
+        <v>2.3959999999999995</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1202,7 +1814,7 @@
       </c>
       <c r="N5" s="2">
         <f>N3*AVERAGE(M7:M8,M10:M13)*365/1000</f>
-        <v>0.85400000000000043</v>
+        <v>0.21866666666666698</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1246,11 +1858,11 @@
       </c>
       <c r="G7" s="2">
         <f>G2*G3*G5/(G5+G6)/365</f>
-        <v>3.2876712328767121</v>
+        <v>7.397260273972603</v>
       </c>
       <c r="H7" s="2">
         <f>H2*H3*H5/(H5+H6)/365</f>
-        <v>2.1917808219178081</v>
+        <v>4.3835616438356162</v>
       </c>
       <c r="I7" s="2">
         <f>I2*I3*I5/(I5+I6)/365</f>
@@ -1258,19 +1870,19 @@
       </c>
       <c r="J7" s="2">
         <f>SUM(G7:I7)</f>
-        <v>6.0794520547945199</v>
+        <v>12.380821917808218</v>
       </c>
       <c r="K7" s="4">
         <f>MIN(J7/C7,1)</f>
-        <v>0.85061666666666647</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
         <f>MAX(0,J7-C7)</f>
-        <v>0</v>
+        <v>5.2337105419892769</v>
       </c>
       <c r="M7" s="3">
         <f>C7*(1-K7)</f>
-        <v>1.067659321024421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1293,11 +1905,11 @@
       </c>
       <c r="G8" s="2">
         <f>G2*G3*G6/(G5+G6)/365</f>
-        <v>2.1917808219178081</v>
+        <v>4.9315068493150687</v>
       </c>
       <c r="H8" s="2">
         <f>H2*H3*H6/(H5+H6)/365</f>
-        <v>3.2876712328767121</v>
+        <v>6.5753424657534243</v>
       </c>
       <c r="I8" s="2">
         <f>I2*I3*I6/(I5+I6)/365</f>
@@ -1305,19 +1917,19 @@
       </c>
       <c r="J8" s="2">
         <f>SUM(G8:I8)</f>
-        <v>6.0794520547945199</v>
+        <v>12.106849315068493</v>
       </c>
       <c r="K8" s="4">
         <f>MIN(J8/C8,1)</f>
-        <v>0.65432051282051262</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
         <f>MAX(0,J8-C8)</f>
-        <v>0</v>
+        <v>2.8156045265038685</v>
       </c>
       <c r="M8" s="3">
         <f>C8*(1-K8)</f>
-        <v>3.2117927337701038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1361,11 +1973,11 @@
       </c>
       <c r="G10" s="2">
         <f>G7*G9</f>
-        <v>6.5753424657534243</v>
+        <v>14.794520547945206</v>
       </c>
       <c r="H10" s="2">
         <f>H7*H9</f>
-        <v>4.3835616438356162</v>
+        <v>8.7671232876712324</v>
       </c>
       <c r="I10" s="2">
         <f>I7*I9</f>
@@ -1373,7 +1985,7 @@
       </c>
       <c r="J10" s="2">
         <f>SUM(G10:I10)</f>
-        <v>11.55890410958904</v>
+        <v>24.161643835616438</v>
       </c>
       <c r="K10" s="4">
         <f>MIN(J10/C10,1)</f>
@@ -1381,7 +1993,7 @@
       </c>
       <c r="L10" s="2">
         <f>MAX(0,J10-C10)</f>
-        <v>4.4117927337700991</v>
+        <v>17.014532459797497</v>
       </c>
       <c r="M10" s="3">
         <f>C10*(1-K10)</f>
@@ -1408,11 +2020,11 @@
       </c>
       <c r="G11" s="2">
         <f>G8*G9</f>
-        <v>4.3835616438356162</v>
+        <v>9.8630136986301373</v>
       </c>
       <c r="H11" s="2">
         <f>H8*H9</f>
-        <v>6.5753424657534243</v>
+        <v>13.150684931506849</v>
       </c>
       <c r="I11" s="2">
         <f>I8*I9</f>
@@ -1420,7 +2032,7 @@
       </c>
       <c r="J11" s="2">
         <f>SUM(G11:I11)</f>
-        <v>11.55890410958904</v>
+        <v>23.613698630136987</v>
       </c>
       <c r="K11" s="4">
         <f>MIN(J11/C11,1)</f>
@@ -1428,7 +2040,7 @@
       </c>
       <c r="L11" s="2">
         <f>MAX(0,J11-C11)</f>
-        <v>2.267659321024416</v>
+        <v>14.322453841572363</v>
       </c>
       <c r="M11" s="3">
         <f>C11*(1-K11)</f>
@@ -1455,11 +2067,11 @@
       </c>
       <c r="G12" s="2">
         <f>G7/G9</f>
-        <v>1.6438356164383561</v>
+        <v>3.6986301369863015</v>
       </c>
       <c r="H12" s="2">
         <f>H7/H9</f>
-        <v>1.095890410958904</v>
+        <v>2.1917808219178081</v>
       </c>
       <c r="I12" s="2">
         <f>I7/I9</f>
@@ -1467,11 +2079,11 @@
       </c>
       <c r="J12" s="2">
         <f>SUM(G12:I12)</f>
-        <v>3.3397260273972602</v>
+        <v>6.4904109589041088</v>
       </c>
       <c r="K12" s="4">
         <f>MIN(J12/C12,1)</f>
-        <v>0.46728333333333322</v>
+        <v>0.90811666666666635</v>
       </c>
       <c r="L12" s="2">
         <f>MAX(0,J12-C12)</f>
@@ -1479,7 +2091,7 @@
       </c>
       <c r="M12" s="3">
         <f>C12*(1-K12)</f>
-        <v>3.8073853484216809</v>
+        <v>0.65670041691483261</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1502,11 +2114,11 @@
       </c>
       <c r="G13" s="2">
         <f>G8/G9</f>
-        <v>1.095890410958904</v>
+        <v>2.4657534246575343</v>
       </c>
       <c r="H13" s="2">
         <f>H8/H9</f>
-        <v>1.6438356164383561</v>
+        <v>3.2876712328767121</v>
       </c>
       <c r="I13" s="2">
         <f>I8/I9</f>
@@ -1514,11 +2126,11 @@
       </c>
       <c r="J13" s="2">
         <f>SUM(G13:I13)</f>
-        <v>3.3397260273972602</v>
+        <v>6.3534246575342461</v>
       </c>
       <c r="K13" s="4">
         <f>MIN(J13/C13,1)</f>
-        <v>0.35944871794871786</v>
+        <v>0.68380769230769212</v>
       </c>
       <c r="L13" s="2">
         <f>MAX(0,J13-C13)</f>
@@ -1526,7 +2138,7 @@
       </c>
       <c r="M13" s="3">
         <f>C13*(1-K13)</f>
-        <v>5.9515187611673648</v>
+        <v>2.9378201310303775</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
@@ -1680,625 +2292,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2030</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>4500</v>
-      </c>
-      <c r="H2">
-        <v>2500</v>
-      </c>
-      <c r="I2">
-        <v>50</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3">
-        <f>365*24/1000</f>
-        <v>8.76</v>
-      </c>
-      <c r="K3" s="1">
-        <f>AVERAGE(K7:K8,K10:K13)</f>
-        <v>0.95950876068376056</v>
-      </c>
-      <c r="L3" s="5">
-        <f>AVERAGE(L7:L8,L10:L13)*0.365</f>
-        <v>2.8959999999999999</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.2</v>
-      </c>
-      <c r="H5">
-        <v>0.8</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <f>N3*AVERAGE(M7:M8,M10:M13)*365/1000</f>
-        <v>0.13533333333333358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1.3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0.8</v>
-      </c>
-      <c r="H6">
-        <v>1.2</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <f>C2*1000/365*C5/(C5+C6)</f>
-        <v>7.1471113758189411</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <f>G2*G3*G5/(G5+G6)/365</f>
-        <v>7.397260273972603</v>
-      </c>
-      <c r="H7" s="2">
-        <f>H2*H3*H5/(H5+H6)/365</f>
-        <v>5.4794520547945202</v>
-      </c>
-      <c r="I7" s="2">
-        <f>I2*I3*I5/(I5+I6)/365</f>
-        <v>0.6</v>
-      </c>
-      <c r="J7" s="2">
-        <f>SUM(G7:I7)</f>
-        <v>13.476712328767123</v>
-      </c>
-      <c r="K7" s="4">
-        <f>MIN(J7/C7,1)</f>
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <f>MAX(0,J7-C7)</f>
-        <v>6.3296009529481818</v>
-      </c>
-      <c r="M7" s="3">
-        <f>C7*(1-K7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <f>C2*1000/365*C6/(C5+C6)</f>
-        <v>9.2912447885646241</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2">
-        <f>G2*G3*G6/(G5+G6)/365</f>
-        <v>4.9315068493150687</v>
-      </c>
-      <c r="H8" s="2">
-        <f>H2*H3*H6/(H5+H6)/365</f>
-        <v>8.2191780821917817</v>
-      </c>
-      <c r="I8" s="2">
-        <f>I2*I3*I6/(I5+I6)/365</f>
-        <v>0.6</v>
-      </c>
-      <c r="J8" s="2">
-        <f>SUM(G8:I8)</f>
-        <v>13.75068493150685</v>
-      </c>
-      <c r="K8" s="4">
-        <f>MIN(J8/C8,1)</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <f>MAX(0,J8-C8)</f>
-        <v>4.4594401429422259</v>
-      </c>
-      <c r="M8" s="3">
-        <f>C8*(1-K8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <f>C7*C9</f>
-        <v>7.1471113758189411</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <f>G7*G9</f>
-        <v>14.794520547945206</v>
-      </c>
-      <c r="H10" s="2">
-        <f>H7*H9</f>
-        <v>10.95890410958904</v>
-      </c>
-      <c r="I10" s="2">
-        <f>I7*I9</f>
-        <v>0.6</v>
-      </c>
-      <c r="J10" s="2">
-        <f>SUM(G10:I10)</f>
-        <v>26.353424657534248</v>
-      </c>
-      <c r="K10" s="4">
-        <f>MIN(J10/C10,1)</f>
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <f>MAX(0,J10-C10)</f>
-        <v>19.206313281715307</v>
-      </c>
-      <c r="M10" s="3">
-        <f>C10*(1-K10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <f>C8*C9</f>
-        <v>9.2912447885646241</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2">
-        <f>G8*G9</f>
-        <v>9.8630136986301373</v>
-      </c>
-      <c r="H11" s="2">
-        <f>H8*H9</f>
-        <v>16.438356164383563</v>
-      </c>
-      <c r="I11" s="2">
-        <f>I8*I9</f>
-        <v>0.6</v>
-      </c>
-      <c r="J11" s="2">
-        <f>SUM(G11:I11)</f>
-        <v>26.901369863013702</v>
-      </c>
-      <c r="K11" s="4">
-        <f>MIN(J11/C11,1)</f>
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <f>MAX(0,J11-C11)</f>
-        <v>17.61012507444908</v>
-      </c>
-      <c r="M11" s="3">
-        <f>C11*(1-K11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <f>C7/C9</f>
-        <v>7.1471113758189411</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <f>G7/G9</f>
-        <v>3.6986301369863015</v>
-      </c>
-      <c r="H12" s="2">
-        <f>H7/H9</f>
-        <v>2.7397260273972601</v>
-      </c>
-      <c r="I12" s="2">
-        <f>I7/I9</f>
-        <v>0.6</v>
-      </c>
-      <c r="J12" s="2">
-        <f>SUM(G12:I12)</f>
-        <v>7.0383561643835613</v>
-      </c>
-      <c r="K12" s="4">
-        <f>MIN(J12/C12,1)</f>
-        <v>0.98478333333333312</v>
-      </c>
-      <c r="L12" s="2">
-        <f>MAX(0,J12-C12)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <f>C12*(1-K12)</f>
-        <v>0.10875521143537974</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <f>C8/C9</f>
-        <v>9.2912447885646241</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2">
-        <f>G8/G9</f>
-        <v>2.4657534246575343</v>
-      </c>
-      <c r="H13" s="2">
-        <f>H8/H9</f>
-        <v>4.1095890410958908</v>
-      </c>
-      <c r="I13" s="2">
-        <f>I8/I9</f>
-        <v>0.6</v>
-      </c>
-      <c r="J13" s="2">
-        <f>SUM(G13:I13)</f>
-        <v>7.1753424657534248</v>
-      </c>
-      <c r="K13" s="4">
-        <f>MIN(J13/C13,1)</f>
-        <v>0.7722692307692306</v>
-      </c>
-      <c r="L13" s="2">
-        <f>MAX(0,J13-C13)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <f>C13*(1-K13)</f>
-        <v>2.1159023228111993</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I18" s="3"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="4"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="4"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="4"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="4"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="4"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I33" s="3"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="4"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="4"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="4"/>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="4"/>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="4"/>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="4"/>
-      <c r="M43" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2913,7 +2911,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2968,7 +2966,7 @@
         <v>4500</v>
       </c>
       <c r="H2">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="I2">
         <v>50</v>
@@ -3002,11 +3000,11 @@
       </c>
       <c r="K3" s="1">
         <f>AVERAGE(K7:K8,K10:K13)</f>
-        <v>0.7602192307692307</v>
+        <v>0.71893717948717939</v>
       </c>
       <c r="L3" s="5">
         <f>AVERAGE(L7:L8,L10:L13)*0.365</f>
-        <v>1.2396666666666665</v>
+        <v>0.90633333333333288</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3044,7 +3042,7 @@
       </c>
       <c r="N5" s="2">
         <f>N3*AVERAGE(M7:M8,M10:M13)*365/1000</f>
-        <v>1.479000000000001</v>
+        <v>1.7290000000000014</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3092,7 +3090,7 @@
       </c>
       <c r="H7" s="2">
         <f>H2*H3*H5/(H5+H6)/365</f>
-        <v>5.4794520547945202</v>
+        <v>4.3835616438356162</v>
       </c>
       <c r="I7" s="2">
         <f>I2*I3*I5/(I5+I6)/365</f>
@@ -3100,11 +3098,11 @@
       </c>
       <c r="J7" s="2">
         <f>SUM(G7:I7)</f>
-        <v>13.476712328767123</v>
+        <v>12.380821917808218</v>
       </c>
       <c r="K7" s="4">
         <f>MIN(J7/C7,1)</f>
-        <v>0.94280833333333314</v>
+        <v>0.86614166666666648</v>
       </c>
       <c r="L7" s="2">
         <f>MAX(0,J7-C7)</f>
@@ -3112,7 +3110,7 @@
       </c>
       <c r="M7" s="3">
         <f>C7*(1-K7)</f>
-        <v>0.81751042287075937</v>
+        <v>1.9134008338296635</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3139,7 +3137,7 @@
       </c>
       <c r="H8" s="2">
         <f>H2*H3*H6/(H5+H6)/365</f>
-        <v>8.2191780821917817</v>
+        <v>6.5753424657534243</v>
       </c>
       <c r="I8" s="2">
         <f>I2*I3*I6/(I5+I6)/365</f>
@@ -3147,11 +3145,11 @@
       </c>
       <c r="J8" s="2">
         <f>SUM(G8:I8)</f>
-        <v>13.75068493150685</v>
+        <v>12.106849315068493</v>
       </c>
       <c r="K8" s="4">
         <f>MIN(J8/C8,1)</f>
-        <v>0.73998076923076905</v>
+        <v>0.65151923076923057</v>
       </c>
       <c r="L8" s="2">
         <f>MAX(0,J8-C8)</f>
@@ -3159,7 +3157,7 @@
       </c>
       <c r="M8" s="3">
         <f>C8*(1-K8)</f>
-        <v>4.8318046456223991</v>
+        <v>6.4756402620607556</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -3207,7 +3205,7 @@
       </c>
       <c r="H10" s="2">
         <f>H7*H9</f>
-        <v>10.95890410958904</v>
+        <v>8.7671232876712324</v>
       </c>
       <c r="I10" s="2">
         <f>I7*I9</f>
@@ -3215,7 +3213,7 @@
       </c>
       <c r="J10" s="2">
         <f>SUM(G10:I10)</f>
-        <v>26.353424657534248</v>
+        <v>24.161643835616438</v>
       </c>
       <c r="K10" s="4">
         <f>MIN(J10/C10,1)</f>
@@ -3223,7 +3221,7 @@
       </c>
       <c r="L10" s="2">
         <f>MAX(0,J10-C10)</f>
-        <v>12.059201905896366</v>
+        <v>9.8674210839785559</v>
       </c>
       <c r="M10" s="3">
         <f>C10*(1-K10)</f>
@@ -3254,7 +3252,7 @@
       </c>
       <c r="H11" s="2">
         <f>H8*H9</f>
-        <v>16.438356164383563</v>
+        <v>13.150684931506849</v>
       </c>
       <c r="I11" s="2">
         <f>I8*I9</f>
@@ -3262,7 +3260,7 @@
       </c>
       <c r="J11" s="2">
         <f>SUM(G11:I11)</f>
-        <v>26.901369863013702</v>
+        <v>23.613698630136987</v>
       </c>
       <c r="K11" s="4">
         <f>MIN(J11/C11,1)</f>
@@ -3270,7 +3268,7 @@
       </c>
       <c r="L11" s="2">
         <f>MAX(0,J11-C11)</f>
-        <v>8.3188802858844539</v>
+        <v>5.0312090530077391</v>
       </c>
       <c r="M11" s="3">
         <f>C11*(1-K11)</f>
@@ -3301,7 +3299,7 @@
       </c>
       <c r="H12" s="2">
         <f>H7/H9</f>
-        <v>2.7397260273972601</v>
+        <v>2.1917808219178081</v>
       </c>
       <c r="I12" s="2">
         <f>I7/I9</f>
@@ -3309,11 +3307,11 @@
       </c>
       <c r="J12" s="2">
         <f>SUM(G12:I12)</f>
-        <v>7.0383561643835613</v>
+        <v>6.4904109589041088</v>
       </c>
       <c r="K12" s="4">
         <f>MIN(J12/C12,1)</f>
-        <v>0.49239166666666656</v>
+        <v>0.45405833333333318</v>
       </c>
       <c r="L12" s="2">
         <f>MAX(0,J12-C12)</f>
@@ -3321,7 +3319,7 @@
       </c>
       <c r="M12" s="3">
         <f>C12*(1-K12)</f>
-        <v>7.2558665872543209</v>
+        <v>7.8038117927337733</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3348,7 +3346,7 @@
       </c>
       <c r="H13" s="2">
         <f>H8/H9</f>
-        <v>4.1095890410958908</v>
+        <v>3.2876712328767121</v>
       </c>
       <c r="I13" s="2">
         <f>I8/I9</f>
@@ -3356,11 +3354,11 @@
       </c>
       <c r="J13" s="2">
         <f>SUM(G13:I13)</f>
-        <v>7.1753424657534248</v>
+        <v>6.3534246575342461</v>
       </c>
       <c r="K13" s="4">
         <f>MIN(J13/C13,1)</f>
-        <v>0.3861346153846153</v>
+        <v>0.34190384615384606</v>
       </c>
       <c r="L13" s="2">
         <f>MAX(0,J13-C13)</f>
@@ -3368,7 +3366,7 @@
       </c>
       <c r="M13" s="3">
         <f>C13*(1-K13)</f>
-        <v>11.407147111375824</v>
+        <v>12.229064919595002</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
@@ -3526,7 +3524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
